--- a/ScheduleManagement.xlsx
+++ b/ScheduleManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538103\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538103\Desktop\GDP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,9 +44,6 @@
     <t>Estimated Hours of a Person</t>
   </si>
   <si>
-    <t>Total Working Hours</t>
-  </si>
-  <si>
     <t>Shiva</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total Working Hours per Week</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,7 +191,29 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -203,36 +225,98 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,34 +609,34 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -563,402 +647,442 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>44065</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>44066</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2</v>
+      </c>
+      <c r="J5" s="16">
+        <f>SUM(E5:I5)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="B6" s="3">
+        <v>44066</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="16">
         <v>1.5</v>
       </c>
-      <c r="F5">
-        <v>2.5</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <f>SUM(E5:I5)</f>
+      <c r="J6" s="16">
+        <f>SUM(E6:I6)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44068</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="I7" s="16">
+        <v>2</v>
+      </c>
+      <c r="J7" s="16">
+        <f>SUM(E7:I7)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44068</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="16">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16">
+        <f>SUM(E8:I8)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44090</v>
+      </c>
+      <c r="C9" s="9">
+        <v>44119</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="J9" s="16">
+        <f>SUM(E9:I9)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44120</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44139</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
+        <v>8</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16">
+        <f>SUM(F10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44140</v>
+      </c>
+      <c r="C11" s="11">
+        <v>44165</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
+        <v>7</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16">
+        <f>SUM(G11)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44216</v>
+      </c>
+      <c r="C12" s="11">
+        <v>44285</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="16">
+        <v>3</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="16">
+        <f>SUM(E12:I12)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44216</v>
+      </c>
+      <c r="C13" s="11">
+        <v>44232</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7">
-        <v>44066</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>2.5</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16">
+        <f>SUM(F13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44233</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44255</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>3</v>
+      </c>
+      <c r="H14" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="I14" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="J14" s="16">
+        <f>SUM(E14:I14)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44256</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44285</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16">
+        <v>8</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16">
+        <f>SUM(H15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44289</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44303</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16">
         <v>1.5</v>
       </c>
-      <c r="I6">
-        <v>1.5</v>
-      </c>
-      <c r="J6">
-        <f>SUM(E6:I6)</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7">
-        <v>44068</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1.5</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2.5</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <f>SUM(E7:I7)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44068</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="G16" s="16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="J16" s="16">
+        <f>SUM(E16:I16)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44304</v>
+      </c>
+      <c r="C17" s="11">
+        <v>44317</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16">
+        <v>6</v>
+      </c>
+      <c r="J17" s="16">
+        <f>SUM(I17)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="2">
+        <f>SUM(E5:E17)</f>
+        <v>22</v>
+      </c>
+      <c r="F18" s="2">
+        <f>SUM(F5:F17)</f>
+        <v>33.5</v>
+      </c>
+      <c r="G18" s="2">
+        <f>SUM(G5:G17)</f>
+        <v>26</v>
+      </c>
+      <c r="H18" s="2">
+        <f>SUM(H5:H17)</f>
+        <v>26.5</v>
+      </c>
+      <c r="I18" s="2">
+        <f>SUM(I5:I17)</f>
         <v>21</v>
       </c>
-      <c r="B9" s="7">
-        <v>44090</v>
-      </c>
-      <c r="C9" s="8">
-        <v>44119</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2.5</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2.5</v>
-      </c>
-      <c r="J9">
-        <f>SUM(E9:I9)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44120</v>
-      </c>
-      <c r="C10" s="7">
-        <v>44139</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7">
-        <v>44140</v>
-      </c>
-      <c r="C11" s="7">
-        <v>44165</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>6.5</v>
-      </c>
-      <c r="J11">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44216</v>
-      </c>
-      <c r="C12" s="7">
-        <v>44285</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>2.5</v>
-      </c>
-      <c r="F12">
-        <v>1.5</v>
-      </c>
-      <c r="G12">
-        <v>2.5</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <f>SUM(E12:I12)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="7">
-        <v>44216</v>
-      </c>
-      <c r="C13" s="7">
-        <v>44232</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7">
-        <v>44233</v>
-      </c>
-      <c r="C14" s="7">
-        <v>44255</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>1.5</v>
-      </c>
-      <c r="F14" s="10">
-        <v>2</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="H14" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="I14" s="10">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <f>SUM(E14:I14)</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="7">
-        <v>44256</v>
-      </c>
-      <c r="C15" s="7">
-        <v>44285</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="7">
-        <v>44289</v>
-      </c>
-      <c r="C16" s="7">
-        <v>44303</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>2.5</v>
-      </c>
-      <c r="F16">
-        <v>1.5</v>
-      </c>
-      <c r="G16">
-        <v>2.5</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2.5</v>
-      </c>
-      <c r="J16">
-        <f>SUM(E16:I16)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="7">
-        <v>44304</v>
-      </c>
-      <c r="C17" s="7">
-        <v>44317</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="E18">
-        <v>21</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>21.5</v>
-      </c>
-      <c r="H18">
-        <v>21.5</v>
-      </c>
-      <c r="I18">
-        <v>20.5</v>
-      </c>
-      <c r="J18">
-        <f>SUM(E18:I18)</f>
-        <v>104.5</v>
+      <c r="J18" s="2">
+        <f>SUM(J5:J17)</f>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
